--- a/bh3/559545221184157248_2021-08-16_20-41-14.xlsx
+++ b/bh3/559545221184157248_2021-08-16_20-41-14.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5194008999</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:55:50</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44426.83043981482</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -620,10 +634,8 @@
           <t>5176783668</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-18 19:55:24</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44426.83013888889</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -701,10 +713,8 @@
           <t>5192587468</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-18 17:22:15</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44426.72378472222</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -764,10 +774,8 @@
           <t>5191813112</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-18 15:42:46</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44426.65469907408</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -835,10 +843,8 @@
           <t>5183363740</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:19:41</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44426.47200231482</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -898,10 +904,8 @@
           <t>5183366631</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-08-18 11:19:12</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44426.47166666666</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -961,10 +965,8 @@
           <t>5188590132</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-08-18 08:09:19</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44426.33980324074</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1032,10 +1034,8 @@
           <t>5186927428</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-08-17 23:27:23</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44425.97734953704</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1107,10 +1107,8 @@
           <t>5185966260</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-08-17 21:47:17</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44425.90783564815</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1174,10 +1172,8 @@
           <t>5182073361</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-08-17 20:03:11</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44425.83554398148</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1253,10 +1249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-08-17 19:02:36</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44425.79347222222</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1332,10 +1326,8 @@
           <t>5184123319</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-08-17 18:25:54</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44425.76798611111</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1411,10 +1403,8 @@
           <t>5183714595</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-08-17 17:41:15</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44425.73697916666</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1478,10 +1468,8 @@
           <t>5183717467</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-08-17 17:40:39</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44425.7365625</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1545,10 +1533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-08-17 17:33:26</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44425.73155092593</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1624,10 +1610,8 @@
           <t>5183363740</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:58:36</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44425.70736111111</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1695,10 +1679,8 @@
           <t>5183363480</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:58:30</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44425.70729166667</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1766,10 +1748,8 @@
           <t>5183366631</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:58:21</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44425.7071875</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1837,10 +1817,8 @@
           <t>5183334547</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-08-17 16:54:46</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44425.70469907407</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1908,10 +1886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-08-17 15:43:00</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44425.65486111111</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1990,10 +1966,8 @@
           <t>5178858712</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-08-17 15:15:59</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44425.63609953703</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2072,10 +2046,8 @@
           <t>5182595976</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-08-17 15:08:58</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44425.63122685185</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2147,10 +2119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-08-17 14:09:20</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44425.58981481481</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2217,10 +2187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-08-17 14:09:13</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44425.5897337963</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2288,10 +2256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-08-17 14:09:09</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44425.5896875</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2355,10 +2321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-08-17 14:03:32</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44425.58578703704</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2422,10 +2386,8 @@
           <t>5182073361</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-08-17 13:53:36</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44425.57888888889</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2493,10 +2455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-08-17 13:31:45</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44425.56371527778</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2568,10 +2528,8 @@
           <t>5176646576</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-08-17 13:29:49</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44425.56237268518</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2639,10 +2597,8 @@
           <t>5178858712</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-08-17 13:08:22</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44425.54747685185</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2710,10 +2666,8 @@
           <t>5181487544</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-08-17 12:41:13</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44425.52862268518</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2781,10 +2735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-08-17 12:31:36</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44425.52194444444</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2848,10 +2800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-08-17 12:02:07</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44425.50146990741</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2915,10 +2865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-08-17 12:01:53</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44425.50130787037</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2982,10 +2930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-08-17 12:01:48</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44425.50125</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3058,10 +3004,8 @@
           <t>5181128245</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-08-17 12:00:26</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44425.50030092592</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3137,10 +3081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-08-17 11:59:00</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44425.49930555555</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3200,10 +3142,8 @@
           <t>5181109332</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-08-17 11:58:42</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44425.49909722222</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3279,10 +3219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-08-17 11:57:30</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44425.49826388889</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3354,10 +3292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-08-17 11:46:25</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44425.49056712963</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3433,10 +3369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-08-17 10:59:24</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44425.45791666667</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3496,10 +3430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-08-17 10:39:17</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44425.44394675926</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3571,10 +3503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-08-17 10:09:51</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44425.42350694445</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3638,10 +3568,8 @@
           <t>5176771148</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-08-17 09:59:42</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44425.41645833333</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3717,10 +3645,8 @@
           <t>5179910889</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-08-17 09:01:58</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44425.37636574074</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3784,10 +3710,8 @@
           <t>5179721324</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-08-17 08:24:15</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44425.35017361111</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3863,10 +3787,8 @@
           <t>5176771148</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-08-17 08:03:44</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44425.33592592592</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3934,10 +3856,8 @@
           <t>5179628574</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-08-17 08:01:58</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44425.33469907408</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4001,10 +3921,8 @@
           <t>5176771148</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-08-17 07:42:17</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44425.32103009259</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4076,10 +3994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-08-17 07:39:07</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44425.31883101852</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4155,10 +4071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-08-17 07:29:33</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44425.3121875</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4235,10 +4149,8 @@
           <t>5176771582</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-08-17 07:16:38</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44425.30321759259</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4307,10 +4219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-08-17 06:51:34</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44425.28581018518</v>
       </c>
       <c r="I54" t="n">
         <v>4</v>
@@ -4374,10 +4284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-08-17 06:40:13</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44425.27792824074</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4441,10 +4349,8 @@
           <t>5179402548</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-08-17 06:38:02</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44425.27641203703</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4508,10 +4414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-08-17 06:31:05</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44425.27158564814</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4571,10 +4475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-08-17 06:21:10</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44425.26469907408</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4638,10 +4540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-08-17 05:51:19</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44425.24396990741</v>
       </c>
       <c r="I59" t="n">
         <v>2</v>
@@ -4705,10 +4605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-08-17 05:43:36</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44425.23861111111</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4781,10 +4679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-08-17 04:32:56</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44425.18953703704</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4860,10 +4756,8 @@
           <t>5177176839</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-08-17 04:29:06</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44425.186875</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4931,10 +4825,8 @@
           <t>5179082530</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-08-17 02:44:16</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44425.11407407407</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5006,10 +4898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-08-17 02:31:53</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44425.10547453703</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5073,10 +4963,8 @@
           <t>5179022848</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-08-17 02:21:45</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44425.0984375</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5141,10 +5029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-08-17 02:21:28</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44425.09824074074</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5212,10 +5098,8 @@
           <t>5179002439</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-08-17 02:13:55</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44425.09299768518</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5291,10 +5175,8 @@
           <t>5178858712</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-08-17 01:36:11</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44425.06679398148</v>
       </c>
       <c r="I68" t="n">
         <v>4</v>
@@ -5358,10 +5240,8 @@
           <t>5176628071</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-08-17 01:32:32</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44425.06425925926</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5437,10 +5317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-08-17 01:29:01</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44425.06181712963</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5504,10 +5382,8 @@
           <t>5178825936</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-08-17 01:27:18</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44425.060625</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5572,10 +5448,8 @@
           <t>5178823890</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-08-17 01:26:44</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44425.06023148148</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -5651,10 +5525,8 @@
           <t>5178809754</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-08-17 01:23:59</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44425.05832175926</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5732,10 +5604,8 @@
           <t>5178800990</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-08-17 01:21:09</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44425.05635416666</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5803,10 +5673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-08-17 01:18:27</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44425.05447916667</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5882,10 +5750,8 @@
           <t>5178736838</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-08-17 01:09:07</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44425.04799768519</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5949,10 +5815,8 @@
           <t>5178716235</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-08-17 01:04:07</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44425.04452546296</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6028,10 +5892,8 @@
           <t>5177176355</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-08-17 01:02:27</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44425.04336805556</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6099,10 +5961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:51:24</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44425.03569444444</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6174,10 +6034,8 @@
           <t>5178509604</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:50:59</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44425.0354050926</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6253,10 +6111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:40:09</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44425.02788194444</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6320,10 +6176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:37:29</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44425.02603009259</v>
       </c>
       <c r="I82" t="n">
         <v>12</v>
@@ -6399,10 +6253,8 @@
           <t>5178541060</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:35:08</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44425.02439814815</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6478,10 +6330,8 @@
           <t>5178528349</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:34:00</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44425.02361111111</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6553,10 +6403,8 @@
           <t>5178518773</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:32:47</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44425.02276620371</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6628,10 +6476,8 @@
           <t>5178517852</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:32:23</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44425.02248842592</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6703,10 +6549,8 @@
           <t>5178522024</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:32:11</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44425.02234953704</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6778,10 +6622,8 @@
           <t>5178512372</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:31:31</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44425.02188657408</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6849,10 +6691,8 @@
           <t>5178509604</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:31:00</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44425.02152777778</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6931,10 +6771,8 @@
           <t>5178508093</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:30:21</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44425.02107638889</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7002,10 +6840,8 @@
           <t>5178489499</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:28:44</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44425.0199537037</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7073,10 +6909,8 @@
           <t>5178475095</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:24:55</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44425.01730324074</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7144,10 +6978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:23:25</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44425.01626157408</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7215,10 +7047,8 @@
           <t>5178145189</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:20:17</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44425.01408564814</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7290,10 +7120,8 @@
           <t>5178292287</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:17:43</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44425.01230324074</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7369,10 +7197,8 @@
           <t>5178399360</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:16:32</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44425.01148148148</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7444,10 +7270,8 @@
           <t>5178389761</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:14:48</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44425.01027777778</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7511,10 +7335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:13:38</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44425.00946759259</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7582,10 +7404,8 @@
           <t>5176646576</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:11:22</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44425.00789351852</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7649,10 +7469,8 @@
           <t>5178292287</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:01:29</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44425.00103009259</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7716,10 +7534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-08-17 00:01:13</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44425.00084490741</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7796,10 +7612,8 @@
           <t>5176999476</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:50:36</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44424.99347222222</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7875,10 +7689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:46:07</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44424.9903587963</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7942,10 +7754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:43:34</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44424.98858796297</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8021,10 +7831,8 @@
           <t>5176628071</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:39:50</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44424.98599537037</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8096,10 +7904,8 @@
           <t>5178145189</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:39:38</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44424.98585648148</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8175,10 +7981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:32:16</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44424.98074074074</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8246,10 +8050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:29:49</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44424.97903935185</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8317,10 +8119,8 @@
           <t>5178007160</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:22:20</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44424.97384259259</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8392,10 +8192,8 @@
           <t>5177993498</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:20:54</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44424.97284722222</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8467,10 +8265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:20:40</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44424.97268518519</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8542,10 +8338,8 @@
           <t>5177991347</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:20:05</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44424.9722800926</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8617,10 +8411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:18:31</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44424.97119212963</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8696,10 +8488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:17:12</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44424.97027777778</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -8775,10 +8565,8 @@
           <t>5176666319</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:14:49</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44424.96862268518</v>
       </c>
       <c r="I115" t="n">
         <v>10</v>
@@ -8846,10 +8634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:14:39</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44424.96850694445</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8917,10 +8703,8 @@
           <t>5177916648</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:10:48</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44424.96583333334</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8988,10 +8772,8 @@
           <t>5176999476</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:10:28</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44424.96560185185</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9055,10 +8837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:08:30</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44424.96423611111</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9126,10 +8906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:07:34</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44424.96358796296</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9201,10 +8979,8 @@
           <t>5176530246</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:06:29</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44424.96283564815</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9264,10 +9040,8 @@
           <t>5177877587</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:06:19</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44424.96271990741</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9339,10 +9113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:05:28</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44424.96212962963</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9418,10 +9190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:04:25</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44424.96140046296</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9493,10 +9263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-08-16 23:04:24</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44424.96138888889</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9560,10 +9328,8 @@
           <t>5177797449</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:57:36</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44424.95666666667</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9623,10 +9389,8 @@
           <t>5176530246</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:57:05</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44424.95630787037</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9703,10 +9467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:53:14</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44424.95363425926</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9782,10 +9544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:53:09</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44424.95357638889</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9857,10 +9617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:52:49</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44424.95334490741</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9936,10 +9694,8 @@
           <t>5177751020</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:52:10</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44424.95289351852</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10017,10 +9773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:50:56</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44424.95203703704</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10090,10 +9844,8 @@
           <t>5177737396</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:50:55</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44424.95202546296</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10161,10 +9913,8 @@
           <t>5177700200</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:46:40</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44424.94907407407</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10236,10 +9986,8 @@
           <t>5177682070</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:45:10</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44424.94803240741</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10311,10 +10059,8 @@
           <t>5177654932</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:43:11</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44424.94665509259</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10374,10 +10120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:36:50</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44424.94224537037</v>
       </c>
       <c r="I137" t="n">
         <v>10</v>
@@ -10445,10 +10189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:36:42</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44424.94215277778</v>
       </c>
       <c r="I138" t="n">
         <v>3</v>
@@ -10515,10 +10257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:36:36</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44424.94208333334</v>
       </c>
       <c r="I139" t="n">
         <v>8</v>
@@ -10582,10 +10322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:36:31</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44424.94202546297</v>
       </c>
       <c r="I140" t="n">
         <v>2</v>
@@ -10649,10 +10387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:35:12</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44424.94111111111</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10724,10 +10460,8 @@
           <t>5176628071</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:34:33</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44424.94065972222</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10791,10 +10525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:33:56</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44424.94023148148</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10862,10 +10594,8 @@
           <t>5177570114</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:32:58</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44424.93956018519</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10934,10 +10664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:32:32</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44424.93925925926</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11014,10 +10742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:31:59</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44424.93887731482</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11085,10 +10811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:31:46</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44424.93872685185</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11152,10 +10876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:31:14</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44424.93835648148</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11223,10 +10945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:30:16</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44424.93768518518</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11302,10 +11022,8 @@
           <t>5177533252</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:29:32</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44424.93717592592</v>
       </c>
       <c r="I150" t="n">
         <v>3</v>
@@ -11373,10 +11091,8 @@
           <t>5176646576</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:28:16</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44424.9362962963</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11448,10 +11164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:26:55</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44424.9353587963</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11515,10 +11229,8 @@
           <t>5177176355</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:25:46</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44424.93456018518</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11594,10 +11306,8 @@
           <t>5177497766</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:25:37</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44424.93445601852</v>
       </c>
       <c r="I154" t="n">
         <v>25</v>
@@ -11669,10 +11379,8 @@
           <t>5176646576</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:25:36</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44424.93444444444</v>
       </c>
       <c r="I155" t="n">
         <v>2</v>
@@ -11736,10 +11444,8 @@
           <t>5177478527</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:25:14</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44424.93418981481</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11803,10 +11509,8 @@
           <t>5177478527</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:23:50</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44424.9332175926</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -11870,10 +11574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:23:38</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44424.9330787037</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11946,10 +11648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:22:56</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44424.9325925926</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12021,10 +11721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:22:11</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44424.93207175926</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12100,10 +11798,8 @@
           <t>5177170141</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:22:02</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44424.93196759259</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12167,10 +11863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:18:47</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44424.92971064815</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12238,10 +11932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:17:50</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44424.92905092592</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12317,10 +12009,8 @@
           <t>5176999476</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:16:25</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44424.92806712963</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12389,10 +12079,8 @@
           <t>5177399576</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:16:06</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44424.92784722222</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12468,10 +12156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:15:59</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44424.92776620371</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12547,10 +12233,8 @@
           <t>5177170141</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:15:49</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44424.92765046296</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12614,10 +12298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:15:02</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44424.92710648148</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12685,10 +12367,8 @@
           <t>5176628071</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:14:52</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44424.92699074074</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12764,10 +12444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:14:11</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44424.9265162037</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12827,10 +12505,8 @@
           <t>5176628071</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:13:52</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44424.9262962963</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -12906,10 +12582,8 @@
           <t>5177170141</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:13:33</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44424.92607638889</v>
       </c>
       <c r="I172" t="n">
         <v>2</v>
@@ -12985,10 +12659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:12:49</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44424.92556712963</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13060,10 +12732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:11:25</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44424.92459490741</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13147,10 +12817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:10:24</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44424.92388888889</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13218,10 +12886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:10:17</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44424.92380787037</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13294,10 +12960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:10:15</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44424.92378472222</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13365,10 +13029,8 @@
           <t>5177351456</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:10:13</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44424.92376157407</v>
       </c>
       <c r="I178" t="n">
         <v>8</v>
@@ -13436,10 +13098,8 @@
           <t>5176628071</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:09:53</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44424.92353009259</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13503,10 +13163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:09:31</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44424.92327546296</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13578,10 +13236,8 @@
           <t>5176628071</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:09:24</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44424.92319444445</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13657,10 +13313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:09:13</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44424.92306712963</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13728,10 +13382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:08:12</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44424.92236111111</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13799,10 +13451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:08:05</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44424.92228009259</v>
       </c>
       <c r="I184" t="n">
         <v>2</v>
@@ -13874,10 +13524,8 @@
           <t>5176628071</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:07:54</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44424.92215277778</v>
       </c>
       <c r="I185" t="n">
         <v>2</v>
@@ -13953,10 +13601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:07:41</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44424.92200231482</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14025,10 +13671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:06:49</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44424.92140046296</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14096,10 +13740,8 @@
           <t>5176628071</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:06:36</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44424.92125</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14163,10 +13805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:06:27</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44424.92114583333</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14239,10 +13879,8 @@
           <t>5177315669</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:06:22</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44424.92108796296</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14314,10 +13952,8 @@
           <t>5177290674</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:03:51</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44424.91934027777</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14389,10 +14025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:02:25</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44424.9183449074</v>
       </c>
       <c r="I192" t="n">
         <v>2</v>
@@ -14473,10 +14107,8 @@
           <t>5176564985</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:01:24</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44424.91763888889</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14548,10 +14180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:00:07</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44424.91674768519</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14627,10 +14257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-08-16 22:00:05</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44424.91672453703</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14706,10 +14334,8 @@
           <t>5177170141</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:59:54</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44424.91659722223</v>
       </c>
       <c r="I196" t="n">
         <v>4</v>
@@ -14785,10 +14411,8 @@
           <t>5177255457</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:59:48</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44424.91652777778</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14848,10 +14472,8 @@
           <t>5177081512</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:58:06</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44424.91534722222</v>
       </c>
       <c r="I198" t="n">
         <v>3</v>
@@ -14915,10 +14537,8 @@
           <t>5177217705</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:58:00</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44424.91527777778</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -14982,10 +14602,8 @@
           <t>5177235039</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:57:41</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44424.91505787037</v>
       </c>
       <c r="I200" t="n">
         <v>2</v>
@@ -15053,10 +14671,8 @@
           <t>5176628071</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:57:14</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44424.91474537037</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -15124,10 +14740,8 @@
           <t>5177176355</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:56:45</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44424.91440972222</v>
       </c>
       <c r="I202" t="n">
         <v>13</v>
@@ -15191,10 +14805,8 @@
           <t>5177176839</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:56:39</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44424.91434027778</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15258,10 +14870,8 @@
           <t>5177170141</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:56:35</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44424.91429398148</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15325,10 +14935,8 @@
           <t>5177217705</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:56:25</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44424.91417824074</v>
       </c>
       <c r="I205" t="n">
         <v>3</v>
@@ -15404,10 +15012,8 @@
           <t>5177215863</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:55:50</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44424.91377314815</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15479,10 +15085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:55:03</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44424.91322916667</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15546,10 +15150,8 @@
           <t>5177199150</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:54:59</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44424.91318287037</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15625,10 +15227,8 @@
           <t>5176783668</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:54:26</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44424.91280092593</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15704,10 +15304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:53:20</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44424.91203703704</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15771,10 +15369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:53:02</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44424.91182870371</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15838,10 +15434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:52:24</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44424.91138888889</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15917,10 +15511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:52:21</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44424.91135416667</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15996,10 +15588,8 @@
           <t>5177168519</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:51:45</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44424.9109375</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16063,10 +15653,8 @@
           <t>5177176839</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:51:23</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44424.91068287037</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16134,10 +15722,8 @@
           <t>5177176355</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:51:14</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44424.9105787037</v>
       </c>
       <c r="I216" t="n">
         <v>13</v>
@@ -16207,10 +15793,8 @@
           <t>5177170141</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:50:52</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44424.91032407407</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16286,10 +15870,8 @@
           <t>5177081512</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:50:47</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44424.9102662037</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16349,10 +15931,8 @@
           <t>5177081512</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:50:33</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44424.91010416667</v>
       </c>
       <c r="I219" t="n">
         <v>2</v>
@@ -16412,10 +15992,8 @@
           <t>5177159139</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:50:32</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44424.9100925926</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16491,10 +16069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:49:56</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44424.90967592593</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16566,10 +16142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:49:51</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44424.90961805556</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16641,10 +16215,8 @@
           <t>5176530246</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:49:47</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44424.90957175926</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16712,10 +16284,8 @@
           <t>5177160786</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:49:36</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44424.90944444444</v>
       </c>
       <c r="I224" t="n">
         <v>5</v>
@@ -16787,10 +16357,8 @@
           <t>5176783668</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:48:41</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44424.90880787037</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16866,10 +16434,8 @@
           <t>5177135627</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:47:29</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44424.90797453704</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16940,10 +16506,8 @@
           <t>5177128573</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:46:54</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44424.90756944445</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17009,10 +16573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:46:23</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44424.90721064815</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17076,10 +16638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:45:57</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44424.90690972222</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17147,10 +16707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:44:54</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44424.90618055555</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17218,10 +16776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:44:18</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44424.90576388889</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17293,10 +16849,8 @@
           <t>5177081512</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:43:54</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44424.90548611111</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17360,10 +16914,8 @@
           <t>5177081512</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:41:12</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44424.90361111111</v>
       </c>
       <c r="I233" t="n">
         <v>2</v>
@@ -17423,10 +16975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:40:13</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44424.90292824074</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17502,10 +17052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:38:03</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44424.90142361111</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17575,10 +17123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:36:46</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44424.90053240741</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17646,10 +17192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:36:43</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44424.90049768519</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17721,10 +17265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:35:58</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44424.89997685186</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17792,10 +17334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:34:50</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44424.89918981482</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17859,10 +17399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:34:39</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44424.8990625</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17930,10 +17468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:34:26</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44424.89891203704</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18001,10 +17537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:33:59</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44424.89859953704</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18080,10 +17614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:33:27</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44424.89822916667</v>
       </c>
       <c r="I243" t="n">
         <v>6</v>
@@ -18147,10 +17679,8 @@
           <t>5176999476</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:33:15</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44424.89809027778</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18226,10 +17756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:33:01</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44424.89792824074</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18305,10 +17833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:32:37</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44424.89765046296</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18384,10 +17910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:32:14</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44424.89738425926</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18459,10 +17983,8 @@
           <t>5176992062</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:32:08</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44424.89731481481</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18526,10 +18048,8 @@
           <t>5176982331</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:30:44</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44424.89634259259</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18598,10 +18118,8 @@
           <t>5176771148</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:29:35</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44424.89554398148</v>
       </c>
       <c r="I250" t="n">
         <v>6</v>
@@ -18677,10 +18195,8 @@
           <t>5176971273</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:29:30</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44424.89548611111</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18748,10 +18264,8 @@
           <t>5176628071</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:29:13</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44424.89528935185</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -18823,10 +18337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:29:00</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44424.89513888889</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18902,10 +18414,8 @@
           <t>5176564985</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:28:34</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44424.89483796297</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18981,10 +18491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:27:53</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44424.89436342593</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19052,10 +18560,8 @@
           <t>5176947792</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:27:27</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44424.8940625</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19115,10 +18621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:27:16</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44424.89393518519</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19186,10 +18690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:27:09</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44424.89385416666</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19261,10 +18763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:26:34</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44424.89344907407</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19332,10 +18832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:26:07</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44424.89313657407</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19407,10 +18905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:23:52</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44424.89157407408</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19478,10 +18974,8 @@
           <t>5176916062</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:23:21</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44424.89121527778</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19557,10 +19051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:23:14</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44424.89113425926</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19628,10 +19120,8 @@
           <t>5176628071</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:22:34</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44424.8906712963</v>
       </c>
       <c r="I264" t="n">
         <v>2</v>
@@ -19703,10 +19193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:21:52</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44424.89018518518</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19782,10 +19270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:21:51</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44424.89017361111</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19861,10 +19347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:21:21</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44424.88982638889</v>
       </c>
       <c r="I267" t="n">
         <v>88</v>
@@ -19928,10 +19412,8 @@
           <t>5176771148</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:20:43</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44424.88938657408</v>
       </c>
       <c r="I268" t="n">
         <v>35</v>
@@ -20007,10 +19489,8 @@
           <t>5176879837</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:20:36</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44424.88930555555</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20086,10 +19566,8 @@
           <t>5176879404</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:20:27</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44424.88920138889</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -20161,10 +19639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:20:00</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44424.88888888889</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20232,10 +19708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:19:34</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44424.88858796296</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20303,10 +19777,8 @@
           <t>5176628071</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:19:17</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44424.88839120371</v>
       </c>
       <c r="I273" t="n">
         <v>1</v>
@@ -20382,10 +19854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:19:17</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44424.88839120371</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20461,10 +19931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:19:10</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44424.88831018518</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20532,10 +20000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:19:07</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44424.88827546296</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20607,10 +20073,8 @@
           <t>5176628071</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:18:54</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44424.888125</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20686,10 +20150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:18:41</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44424.88797453704</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20765,10 +20227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:18:10</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44424.88761574074</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20828,10 +20288,8 @@
           <t>5176783668</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:17:51</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44424.88739583334</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20895,10 +20353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:17:45</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44424.88732638889</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20970,10 +20426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:17:38</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44424.88724537037</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21049,10 +20503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:17:27</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44424.88711805556</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21116,10 +20568,8 @@
           <t>5176849684</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:17:17</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44424.88700231481</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21187,10 +20637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:17:06</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44424.886875</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21254,10 +20702,8 @@
           <t>5176628071</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:16:59</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44424.88679398148</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21333,10 +20779,8 @@
           <t>5176628488</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:16:01</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44424.88612268519</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21404,10 +20848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:15:45</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44424.8859375</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21476,10 +20918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:15:11</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44424.88554398148</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21547,10 +20987,8 @@
           <t>5176628488</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:15:10</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44424.88553240741</v>
       </c>
       <c r="I290" t="n">
         <v>16</v>
@@ -21618,10 +21056,8 @@
           <t>5176823363</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:13:58</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44424.88469907407</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21689,10 +21125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:13:49</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44424.88459490741</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21768,10 +21202,8 @@
           <t>5176818467</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:13:39</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44424.88447916666</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -21839,10 +21271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:13:20</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44424.88425925926</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21918,10 +21348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:13:02</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44424.88405092592</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21993,10 +21421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:12:59</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44424.8840162037</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22072,10 +21498,8 @@
           <t>5176628071</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:12:17</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44424.88353009259</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -22147,10 +21571,8 @@
           <t>5176628071</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:12:12</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44424.88347222222</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22210,10 +21632,8 @@
           <t>5176807619</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:12:01</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44424.88334490741</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22277,10 +21697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:11:48</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44424.88319444445</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22348,10 +21766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:11:04</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44424.88268518518</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22419,10 +21835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:10:32</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44424.88231481481</v>
       </c>
       <c r="I302" t="n">
         <v>2</v>
@@ -22486,10 +21900,8 @@
           <t>5176783668</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:10:12</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44424.88208333333</v>
       </c>
       <c r="I303" t="n">
         <v>3</v>
@@ -22561,10 +21973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:09:33</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44424.88163194444</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22632,10 +22042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:09:16</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44424.88143518518</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22711,10 +22119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:08:21</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44424.88079861111</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22778,10 +22184,8 @@
           <t>5176771582</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:08:13</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44424.88070601852</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22853,10 +22257,8 @@
           <t>5176775742</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:08:07</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44424.88063657407</v>
       </c>
       <c r="I308" t="n">
         <v>2</v>
@@ -22928,10 +22330,8 @@
           <t>5176771148</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:08:04</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44424.88060185185</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23003,10 +22403,8 @@
           <t>5176764815</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:07:49</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44424.88042824074</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23078,10 +22476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:07:31</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44424.88021990741</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23149,10 +22545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:06:16</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44424.87935185185</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23224,10 +22618,8 @@
           <t>5176628071</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:06:06</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44424.87923611111</v>
       </c>
       <c r="I313" t="n">
         <v>2</v>
@@ -23303,10 +22695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:05:55</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44424.8791087963</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23383,10 +22773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:05:47</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44424.8790162037</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23458,10 +22846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:05:42</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44424.87895833333</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
@@ -23533,10 +22919,8 @@
           <t>5176628071</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:05:19</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44424.87869212963</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23596,10 +22980,8 @@
           <t>5176745047</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:04:45</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44424.87829861111</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23671,10 +23053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:04:06</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44424.87784722223</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23746,10 +23126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:04:00</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44424.87777777778</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23817,10 +23195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:03:59</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44424.8777662037</v>
       </c>
       <c r="I321" t="n">
         <v>3</v>
@@ -23888,10 +23264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:03:49</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44424.87765046296</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23959,10 +23333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:03:26</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44424.87738425926</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -24030,10 +23402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:03:25</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44424.87737268519</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24105,10 +23475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:02:55</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44424.87702546296</v>
       </c>
       <c r="I325" t="n">
         <v>70</v>
@@ -24176,10 +23544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:02:37</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44424.87681712963</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24255,10 +23621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:02:29</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44424.87672453704</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24322,10 +23686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:02:14</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44424.87655092592</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24393,10 +23755,8 @@
           <t>5176715546</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:01:56</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44424.87634259259</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24456,10 +23816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:01:45</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44424.87621527778</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24527,10 +23885,8 @@
           <t>5176710375</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:01:25</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44424.87598379629</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -24598,10 +23954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:01:19</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44424.87591435185</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24677,10 +24031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:01:07</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44424.87577546296</v>
       </c>
       <c r="I333" t="n">
         <v>21</v>
@@ -24752,10 +24104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:00:45</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44424.87552083333</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24823,10 +24173,8 @@
           <t>5176646576</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:00:44</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44424.87550925926</v>
       </c>
       <c r="I335" t="n">
         <v>10</v>
@@ -24898,10 +24246,8 @@
           <t>5176692514</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:00:19</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44424.87521990741</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24973,10 +24319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-08-16 21:00:18</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44424.87520833333</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25052,10 +24396,8 @@
           <t>5176646576</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:59:39</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44424.87475694445</v>
       </c>
       <c r="I338" t="n">
         <v>35</v>
@@ -25131,10 +24473,8 @@
           <t>5176685997</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:59:08</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44424.87439814815</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25202,10 +24542,8 @@
           <t>5176685716</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:59:02</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44424.87432870371</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25281,10 +24619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:58:59</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44424.87429398148</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25360,10 +24696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:58:51</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44424.87420138889</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25431,10 +24765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:58:23</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44424.87387731481</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25510,10 +24842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:58:15</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44424.87378472222</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25577,10 +24907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:58:00</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44424.87361111111</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -25652,10 +24980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:57:18</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44424.873125</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25727,10 +25053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:57:08</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44424.87300925926</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25798,10 +25122,8 @@
           <t>5176666319</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:56:42</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44424.87270833334</v>
       </c>
       <c r="I348" t="n">
         <v>8</v>
@@ -25878,10 +25200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:56:22</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44424.87247685185</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25957,10 +25277,8 @@
           <t>5176656083</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:56:12</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44424.87236111111</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26036,10 +25354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:56:11</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44424.87234953704</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26103,10 +25419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:56:04</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44424.87226851852</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -26174,10 +25488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:55:09</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44424.87163194444</v>
       </c>
       <c r="I353" t="n">
         <v>219</v>
@@ -26254,10 +25566,8 @@
           <t>5176646576</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:55:01</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44424.87153935185</v>
       </c>
       <c r="I354" t="n">
         <v>4</v>
@@ -26323,10 +25633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:54:15</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44424.87100694444</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26390,10 +25698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:54:09</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44424.8709375</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26461,10 +25767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:53:59</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44424.87082175926</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26540,10 +25844,8 @@
           <t>5176628488</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:53:56</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44424.87078703703</v>
       </c>
       <c r="I358" t="n">
         <v>18</v>
@@ -26611,10 +25913,8 @@
           <t>5176628071</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:53:47</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44424.87068287037</v>
       </c>
       <c r="I359" t="n">
         <v>5</v>
@@ -26690,10 +25990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:53:33</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44424.87052083333</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26757,10 +26055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:53:30</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44424.87048611111</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26836,10 +26132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:53:25</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44424.87042824074</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26915,10 +26209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:53:24</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44424.87041666666</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -26986,10 +26278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:53:20</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44424.87037037037</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27065,10 +26355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:53:18</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44424.87034722222</v>
       </c>
       <c r="I365" t="n">
         <v>1</v>
@@ -27140,10 +26428,8 @@
           <t>5176626557</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:53:15</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44424.8703125</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27215,10 +26501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:53:08</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44424.87023148148</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27286,10 +26570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:52:47</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44424.86998842593</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27365,10 +26647,8 @@
           <t>5176619648</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:52:44</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44424.8699537037</v>
       </c>
       <c r="I369" t="n">
         <v>4</v>
@@ -27432,10 +26712,8 @@
           <t>5176564985</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:52:25</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44424.86973379629</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27507,10 +26785,8 @@
           <t>5176613210</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:52:04</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44424.86949074074</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27578,10 +26854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:51:48</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44424.86930555556</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27645,10 +26919,8 @@
           <t>5176621277</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:51:46</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44424.86928240741</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27708,10 +26980,8 @@
           <t>5176564985</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:51:30</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44424.86909722222</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27779,10 +27049,8 @@
           <t>5176564985</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:51:21</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44424.86899305556</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27850,10 +27118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:51:17</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44424.86894675926</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -27929,10 +27195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:51:08</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44424.86884259259</v>
       </c>
       <c r="I377" t="n">
         <v>1</v>
@@ -28008,10 +27272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:51:07</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44424.86883101852</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -28075,10 +27337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:51:07</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44424.86883101852</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -28154,10 +27414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:51:03</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44424.86878472222</v>
       </c>
       <c r="I380" t="n">
         <v>1</v>
@@ -28221,10 +27479,8 @@
           <t>5176604577</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:51:02</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44424.86877314815</v>
       </c>
       <c r="I381" t="n">
         <v>25</v>
@@ -28300,10 +27556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:50:59</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44424.86873842592</v>
       </c>
       <c r="I382" t="n">
         <v>1</v>
@@ -28375,10 +27629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:50:51</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44424.86864583333</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28448,10 +27700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:50:51</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44424.86864583333</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28519,10 +27769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:50:45</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44424.86857638889</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28586,10 +27834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:50:39</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44424.86850694445</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28665,10 +27911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:50:32</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44424.86842592592</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28736,10 +27980,8 @@
           <t>5176598717</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:50:30</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44424.86840277778</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28807,10 +28049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:50:25</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44424.86834490741</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28878,10 +28118,8 @@
           <t>5176564985</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:50:19</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44424.86827546296</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28949,10 +28187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:50:17</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44424.86825231482</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29020,10 +28256,8 @@
           <t>5176601814</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:50:07</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44424.86813657408</v>
       </c>
       <c r="I392" t="n">
         <v>2</v>
@@ -29100,10 +28334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:49:59</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44424.86804398148</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29171,10 +28403,8 @@
           <t>5176605106</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:49:57</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44424.86802083333</v>
       </c>
       <c r="I394" t="n">
         <v>5</v>
@@ -29250,10 +28480,8 @@
           <t>5176600733</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:49:45</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44424.86788194445</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29325,10 +28553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:49:28</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44424.86768518519</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29396,10 +28622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:49:27</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44424.86767361111</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -29467,10 +28691,8 @@
           <t>5176593204</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:49:24</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44424.86763888889</v>
       </c>
       <c r="I398" t="n">
         <v>32</v>
@@ -29538,10 +28760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:49:15</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44424.86753472222</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29609,10 +28829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:49:09</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44424.86746527778</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29680,10 +28898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:49:02</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44424.86738425926</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29759,10 +28975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:48:57</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44424.86732638889</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29830,10 +29044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:48:56</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44424.86731481482</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29897,10 +29109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:48:54</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44424.86729166667</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29964,10 +29174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:48:44</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44424.86717592592</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30035,10 +29243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:48:37</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44424.86709490741</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30106,10 +29312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:48:34</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44424.86706018518</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30185,10 +29389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:48:14</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44424.86682870371</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30256,10 +29458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:48:12</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44424.86680555555</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30327,10 +29527,8 @@
           <t>5176578432</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:48:01</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44424.86667824074</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30394,10 +29592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:47:44</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44424.86648148148</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30461,10 +29657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:47:38</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44424.86641203704</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30536,10 +29730,8 @@
           <t>5176576963</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:47:35</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44424.86637731481</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30615,10 +29807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:47:33</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44424.86635416667</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30694,10 +29884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:47:32</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44424.86634259259</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30761,10 +29949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:47:31</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44424.86633101852</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30840,10 +30026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:47:21</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44424.86621527778</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30911,10 +30095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:47:11</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44424.86609953704</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30983,10 +30165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:47:05</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44424.86603009259</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31062,10 +30242,8 @@
           <t>5176564985</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:47:01</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44424.8659837963</v>
       </c>
       <c r="I420" t="n">
         <v>38</v>
@@ -31129,10 +30307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:47:00</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44424.86597222222</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31200,10 +30376,8 @@
           <t>5176568470</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:47:00</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44424.86597222222</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31275,10 +30449,8 @@
           <t>5176564913</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:46:59</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44424.86596064815</v>
       </c>
       <c r="I423" t="n">
         <v>2</v>
@@ -31346,10 +30518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:46:52</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44424.86587962963</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31417,10 +30587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:46:43</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44424.86577546296</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31484,10 +30652,8 @@
           <t>5176571244</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:46:41</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44424.86575231481</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31556,10 +30722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:46:40</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44424.86574074074</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31627,10 +30791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:46:39</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44424.86572916667</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31706,10 +30868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:46:37</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44424.86570601852</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -31773,10 +30933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:46:33</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44424.86565972222</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31844,10 +31002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:46:33</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44424.86565972222</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31919,10 +31075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:46:32</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44424.86564814814</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31998,10 +31152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:46:31</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44424.86563657408</v>
       </c>
       <c r="I433" t="n">
         <v>1</v>
@@ -32079,10 +31231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:46:30</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44424.865625</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32158,10 +31308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:46:25</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44424.86556712963</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32240,10 +31388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:46:13</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44424.86542824074</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32303,10 +31449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:46:11</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44424.86540509259</v>
       </c>
       <c r="I437" t="n">
         <v>1</v>
@@ -32374,10 +31518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:46:09</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44424.86538194444</v>
       </c>
       <c r="I438" t="n">
         <v>1</v>
@@ -32449,10 +31591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:46:06</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44424.86534722222</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32528,10 +31668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:46:03</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44424.8653125</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -32599,10 +31737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:46:00</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44424.86527777778</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32674,10 +31810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:45:59</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44424.86526620371</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32749,10 +31883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:45:52</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44424.86518518518</v>
       </c>
       <c r="I443" t="n">
         <v>1</v>
@@ -32828,10 +31960,8 @@
           <t>5176554837</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:45:50</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44424.86516203704</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32905,10 +32035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:45:42</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44424.86506944444</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -32972,10 +32100,8 @@
           <t>5176557860</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:45:37</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44424.86501157407</v>
       </c>
       <c r="I446" t="n">
         <v>5</v>
@@ -33043,10 +32169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:45:30</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44424.86493055556</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33114,10 +32238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:45:30</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44424.86493055556</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33189,10 +32311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:45:29</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44424.86491898148</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33256,10 +32376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:45:26</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44424.86488425926</v>
       </c>
       <c r="I450" t="n">
         <v>1</v>
@@ -33335,10 +32453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:45:25</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44424.86487268518</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33414,10 +32530,8 @@
           <t>5176556887</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:45:18</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44424.86479166667</v>
       </c>
       <c r="I452" t="n">
         <v>1</v>
@@ -33489,10 +32603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:45:17</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44424.86478009259</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33568,10 +32680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:45:09</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44424.8646875</v>
       </c>
       <c r="I454" t="n">
         <v>1</v>
@@ -33635,10 +32745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:45:09</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44424.8646875</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33711,10 +32819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:45:04</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44424.86462962963</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33782,10 +32888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:45:04</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44424.86462962963</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33857,10 +32961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:45:02</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44424.86460648148</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33928,10 +33030,8 @@
           <t>5176530246</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:45:01</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44424.86459490741</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33999,10 +33099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:45:00</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44424.86458333334</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -34062,10 +33160,8 @@
           <t>5176547635</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:59</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44424.86457175926</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34138,10 +33234,8 @@
           <t>5176547510</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:57</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44424.86454861111</v>
       </c>
       <c r="I462" t="n">
         <v>6</v>
@@ -34213,10 +33307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:57</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44424.86454861111</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34284,10 +33376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:48</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44424.86444444444</v>
       </c>
       <c r="I464" t="n">
         <v>1</v>
@@ -34359,10 +33449,8 @@
           <t>5176555221</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:47</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44424.86443287037</v>
       </c>
       <c r="I465" t="n">
         <v>9</v>
@@ -34435,10 +33523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:46</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44424.8644212963</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34510,10 +33596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:44</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44424.86439814815</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34589,10 +33673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:38</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44424.8643287037</v>
       </c>
       <c r="I468" t="n">
         <v>1</v>
@@ -34664,10 +33746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:36</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44424.86430555556</v>
       </c>
       <c r="I469" t="n">
         <v>3</v>
@@ -34731,10 +33811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:33</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44424.86427083334</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34802,10 +33880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:29</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44424.86422453704</v>
       </c>
       <c r="I471" t="n">
         <v>1</v>
@@ -34877,10 +33953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:28</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44424.86421296297</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -34952,10 +34026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:27</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44424.86420138889</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35027,10 +34099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:21</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44424.86413194444</v>
       </c>
       <c r="I474" t="n">
         <v>1</v>
@@ -35102,10 +34172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:21</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44424.86413194444</v>
       </c>
       <c r="I475" t="n">
         <v>10</v>
@@ -35181,10 +34249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:18</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44424.86409722222</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35248,10 +34314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:18</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44424.86409722222</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35319,10 +34383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:16</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44424.86407407407</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35395,10 +34457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:12</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44424.86402777778</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35475,10 +34535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:10</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44424.86400462963</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35554,10 +34612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:08</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44424.86398148148</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35633,10 +34689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:06</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44424.86395833334</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35712,10 +34766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:06</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44424.86395833334</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35791,10 +34843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:06</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44424.86395833334</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35862,10 +34912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:05</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44424.86394675926</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35937,10 +34985,8 @@
           <t>5176530246</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:44:02</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44424.86391203704</v>
       </c>
       <c r="I486" t="n">
         <v>38</v>
@@ -36004,10 +35050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:58</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44424.86386574074</v>
       </c>
       <c r="I487" t="n">
         <v>3</v>
@@ -36071,10 +35115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:54</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44424.86381944444</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36150,10 +35192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:53</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44424.86380787037</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36229,10 +35269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:46</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44424.86372685185</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36296,10 +35334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:46</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44424.86372685185</v>
       </c>
       <c r="I491" t="n">
         <v>2</v>
@@ -36367,10 +35403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:45</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44424.86371527778</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36434,10 +35468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:41</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44424.86366898148</v>
       </c>
       <c r="I493" t="n">
         <v>2</v>
@@ -36513,10 +35545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:37</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44424.86362268519</v>
       </c>
       <c r="I494" t="n">
         <v>3</v>
@@ -36584,10 +35614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:32</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44424.86356481481</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36651,10 +35679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:31</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44424.86355324074</v>
       </c>
       <c r="I496" t="n">
         <v>2</v>
@@ -36730,10 +35756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:29</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44424.8635300926</v>
       </c>
       <c r="I497" t="n">
         <v>21</v>
@@ -36809,10 +35833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:27</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44424.86350694444</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36888,10 +35910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:26</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44424.86349537037</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36963,10 +35983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:24</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44424.86347222222</v>
       </c>
       <c r="I500" t="n">
         <v>6</v>
@@ -37042,10 +36060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:24</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44424.86347222222</v>
       </c>
       <c r="I501" t="n">
         <v>2</v>
@@ -37121,10 +36137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:23</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44424.86346064815</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37188,10 +36202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:21</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44424.8634375</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -37255,10 +36267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:20</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44424.86342592593</v>
       </c>
       <c r="I504" t="n">
         <v>1</v>
@@ -37322,10 +36332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:17</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44424.8633912037</v>
       </c>
       <c r="I505" t="n">
         <v>3</v>
@@ -37393,10 +36401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:14</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44424.86335648148</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37460,10 +36466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:14</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44424.86335648148</v>
       </c>
       <c r="I507" t="n">
         <v>675</v>
@@ -37539,10 +36543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:13</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44424.8633449074</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37610,10 +36612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:13</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44424.8633449074</v>
       </c>
       <c r="I509" t="n">
         <v>1</v>
@@ -37685,10 +36685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:13</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44424.8633449074</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37766,10 +36764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:12</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44424.86333333333</v>
       </c>
       <c r="I511" t="n">
         <v>1</v>
@@ -37845,10 +36841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:12</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44424.86333333333</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37916,10 +36910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:09</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44424.86329861111</v>
       </c>
       <c r="I513" t="n">
         <v>1109</v>
@@ -37995,10 +36987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:09</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44424.86329861111</v>
       </c>
       <c r="I514" t="n">
         <v>23</v>
@@ -38074,10 +37064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:06</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44424.86326388889</v>
       </c>
       <c r="I515" t="n">
         <v>33</v>
@@ -38149,10 +37137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:04</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44424.86324074074</v>
       </c>
       <c r="I516" t="n">
         <v>1</v>
@@ -38216,10 +37202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:04</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44424.86324074074</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38283,10 +37267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:03</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44424.86322916667</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38350,10 +37332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:43:01</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44424.86320601852</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38425,10 +37405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:58</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44424.8631712963</v>
       </c>
       <c r="I520" t="n">
         <v>2</v>
@@ -38492,10 +37470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:55</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44424.86313657407</v>
       </c>
       <c r="I521" t="n">
         <v>13</v>
@@ -38572,10 +37548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:54</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44424.863125</v>
       </c>
       <c r="I522" t="n">
         <v>11</v>
@@ -38653,10 +37627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:52</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44424.86310185185</v>
       </c>
       <c r="I523" t="n">
         <v>432</v>
@@ -38724,10 +37696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:50</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44424.8630787037</v>
       </c>
       <c r="I524" t="n">
         <v>21</v>
@@ -38803,10 +37773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:50</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44424.8630787037</v>
       </c>
       <c r="I525" t="n">
         <v>1</v>
@@ -38870,10 +37838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:48</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44424.86305555556</v>
       </c>
       <c r="I526" t="n">
         <v>2</v>
@@ -38949,10 +37915,8 @@
           <t>5176530246</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:48</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44424.86305555556</v>
       </c>
       <c r="I527" t="n">
         <v>65</v>
@@ -39020,10 +37984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:47</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44424.86304398148</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39099,10 +38061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:47</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44424.86304398148</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -39170,10 +38130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:46</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44424.8630324074</v>
       </c>
       <c r="I530" t="n">
         <v>3</v>
@@ -39249,10 +38207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:44</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44424.86300925926</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39320,10 +38276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:41</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44424.86297453703</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39399,10 +38353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:41</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44424.86297453703</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39481,10 +38433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:40</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44424.86296296296</v>
       </c>
       <c r="I534" t="n">
         <v>2</v>
@@ -39548,10 +38498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:39</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44424.86295138889</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39627,10 +38575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:35</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44424.8629050926</v>
       </c>
       <c r="I536" t="n">
         <v>254</v>
@@ -39706,10 +38652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:34</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44424.86289351852</v>
       </c>
       <c r="I537" t="n">
         <v>2</v>
@@ -39787,10 +38731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:33</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44424.86288194444</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39854,10 +38796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:33</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44424.86288194444</v>
       </c>
       <c r="I539" t="n">
         <v>1</v>
@@ -39933,10 +38873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:25</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44424.86278935185</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -40000,10 +38938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:24</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44424.86277777778</v>
       </c>
       <c r="I541" t="n">
         <v>17</v>
@@ -40079,10 +39015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:21</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44424.86274305556</v>
       </c>
       <c r="I542" t="n">
         <v>6</v>
@@ -40155,10 +39089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:21</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44424.86274305556</v>
       </c>
       <c r="I543" t="n">
         <v>1</v>
@@ -40231,10 +39163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:19</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44424.86271990741</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40302,10 +39232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:19</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44424.86271990741</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40381,10 +39309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:18</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44424.86270833333</v>
       </c>
       <c r="I546" t="n">
         <v>2</v>
@@ -40448,10 +39374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:18</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44424.86270833333</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40519,10 +39443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:16</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44424.86268518519</v>
       </c>
       <c r="I548" t="n">
         <v>2</v>
@@ -40598,10 +39520,8 @@
           <t>5176518499</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:16</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44424.86268518519</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40669,10 +39589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:15</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44424.86267361111</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40736,10 +39654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:15</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44424.86267361111</v>
       </c>
       <c r="I551" t="n">
         <v>2</v>
@@ -40815,10 +39731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:10</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44424.86261574074</v>
       </c>
       <c r="I552" t="n">
         <v>1</v>
@@ -40895,10 +39809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:10</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44424.86261574074</v>
       </c>
       <c r="I553" t="n">
         <v>1</v>
@@ -40974,10 +39886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:07</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44424.86258101852</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -41041,10 +39951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:07</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44424.86258101852</v>
       </c>
       <c r="I555" t="n">
         <v>178</v>
@@ -41116,10 +40024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:06</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44424.86256944444</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41191,10 +40097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:06</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44424.86256944444</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41262,10 +40166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:06</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44424.86256944444</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41337,10 +40239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:04</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44424.8625462963</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41408,10 +40308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:04</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44424.8625462963</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41479,10 +40377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:04</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44424.8625462963</v>
       </c>
       <c r="I561" t="n">
         <v>1</v>
@@ -41559,10 +40455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:03</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44424.86253472222</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41626,10 +40520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:01</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44424.86251157407</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41705,10 +40597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:01</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44424.86251157407</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41776,10 +40666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:42:00</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44424.8625</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41847,10 +40735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:59</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44424.86248842593</v>
       </c>
       <c r="I566" t="n">
         <v>1</v>
@@ -41918,10 +40804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:58</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44424.86247685185</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41989,10 +40873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:58</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44424.86247685185</v>
       </c>
       <c r="I568" t="n">
         <v>1</v>
@@ -42068,10 +40950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:58</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44424.86247685185</v>
       </c>
       <c r="I569" t="n">
         <v>1</v>
@@ -42139,10 +41019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:58</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44424.86247685185</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42210,10 +41088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:57</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44424.86246527778</v>
       </c>
       <c r="I571" t="n">
         <v>1</v>
@@ -42285,10 +41161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:56</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44424.8624537037</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42356,10 +41230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:55</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44424.86244212963</v>
       </c>
       <c r="I573" t="n">
         <v>1</v>
@@ -42431,10 +41303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:54</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44424.86243055556</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42510,10 +41380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:54</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44424.86243055556</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42581,10 +41449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:52</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44424.86240740741</v>
       </c>
       <c r="I576" t="n">
         <v>2</v>
@@ -42660,10 +41526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:52</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44424.86240740741</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42735,10 +41599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:52</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44424.86240740741</v>
       </c>
       <c r="I578" t="n">
         <v>1</v>
@@ -42806,10 +41668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:52</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44424.86240740741</v>
       </c>
       <c r="I579" t="n">
         <v>1</v>
@@ -42881,10 +41741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:50</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44424.86238425926</v>
       </c>
       <c r="I580" t="n">
         <v>2</v>
@@ -42956,10 +41814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:49</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44424.86237268519</v>
       </c>
       <c r="I581" t="n">
         <v>4</v>
@@ -43027,10 +41883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:48</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44424.86236111111</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -43102,10 +41956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:48</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44424.86236111111</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -43182,10 +42034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:48</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44424.86236111111</v>
       </c>
       <c r="I584" t="n">
         <v>4</v>
@@ -43261,10 +42111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:47</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44424.86234953703</v>
       </c>
       <c r="I585" t="n">
         <v>58</v>
@@ -43340,10 +42188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:46</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44424.86233796296</v>
       </c>
       <c r="I586" t="n">
         <v>1</v>
@@ -43407,10 +42253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:46</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44424.86233796296</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43486,10 +42330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:44</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44424.86231481482</v>
       </c>
       <c r="I588" t="n">
         <v>1</v>
@@ -43565,10 +42407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:43</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44424.86230324074</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43641,10 +42481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:42</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44424.86229166666</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43712,10 +42550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:41</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44424.8622800926</v>
       </c>
       <c r="I591" t="n">
         <v>1</v>
@@ -43791,10 +42627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:40</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44424.86226851852</v>
       </c>
       <c r="I592" t="n">
         <v>1807</v>
@@ -43862,10 +42696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:38</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44424.86224537037</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43933,10 +42765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:37</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44424.8622337963</v>
       </c>
       <c r="I594" t="n">
         <v>1</v>
@@ -44012,10 +42842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:35</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44424.86221064815</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -44075,10 +42903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:34</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44424.86219907407</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -44142,10 +42968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:33</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44424.8621875</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
@@ -44217,10 +43041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:31</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44424.86216435185</v>
       </c>
       <c r="I598" t="n">
         <v>4</v>
@@ -44288,10 +43110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-08-16 20:41:27</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44424.86211805556</v>
       </c>
       <c r="I599" t="n">
         <v>2</v>
